--- a/documentation/PresentationScheduleAsOf2018-11-20.xlsx
+++ b/documentation/PresentationScheduleAsOf2018-11-20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdrk0011\Documents\GitHub\ceng317\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Departmental\Applied Technology\Program Files\CENG\mdrk0011\2018fall\ceng317\bb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Presentations</t>
   </si>
@@ -186,6 +186,21 @@
   </si>
   <si>
     <t>Kyele</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>0xReadingCase</t>
+  </si>
+  <si>
+    <t>Proposal</t>
   </si>
 </sst>
 </file>
@@ -504,43 +519,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -551,11 +608,11 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -566,11 +623,11 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -581,11 +638,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -596,11 +653,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -611,11 +668,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -626,11 +683,11 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -641,11 +698,11 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -656,11 +713,11 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -671,11 +728,11 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -686,23 +743,22 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -712,12 +768,11 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -728,12 +783,11 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -744,11 +798,11 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -759,12 +813,11 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -775,11 +828,11 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -790,11 +843,11 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -805,11 +858,11 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -820,11 +873,11 @@
       <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -835,11 +888,11 @@
       <c r="C24" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="s">
+      <c r="I24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -850,11 +903,11 @@
       <c r="C25" t="s">
         <v>30</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -865,11 +918,11 @@
       <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -880,11 +933,11 @@
       <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -895,11 +948,11 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="s">
+      <c r="I28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -910,11 +963,11 @@
       <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
+      <c r="I29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -925,14 +978,16 @@
       <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
+      <c r="I30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/PresentationScheduleAsOf2018-11-20.xlsx
+++ b/documentation/PresentationScheduleAsOf2018-11-20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Departmental\Applied Technology\Program Files\CENG\mdrk0011\2018fall\ceng317\bb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdrk0011\Documents\GitHub\ceng317\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -188,9 +188,6 @@
     <t>Kyele</t>
   </si>
   <si>
-    <t>Intro</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -201,12 +198,15 @@
   </si>
   <si>
     <t>Proposal</t>
+  </si>
+  <si>
+    <t>Schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,16 +530,16 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -553,37 +553,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>58</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
